--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF03FAA-9713-4561-9091-B982EA63545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6A718-D64C-474D-9866-6FD4FCE9373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4 月'!$A:$I</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'5 月'!$A:$I</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'6 月'!$A:$I</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'7 月'!$A:$I</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'7 月'!$A:$H</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'8 月'!$A:$I</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'9 月'!$A:$I</definedName>
     <definedName name="RowTitleRegion1..K3">'1 月'!$K$4</definedName>
@@ -2224,6 +2224,9 @@
     <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2281,17 +2284,41 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2307,33 +2334,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3729,12 +3729,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="str">
+      <c r="B2" s="112" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3776,10 +3776,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="116"/>
+      <c r="L3" s="117"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -4013,13 +4013,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -4029,11 +4029,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4121,12 +4121,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="134" t="str">
+      <c r="B2" s="143" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4359,24 +4359,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -4448,12 +4448,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="134" t="str">
+      <c r="B2" s="143" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4686,24 +4686,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -4775,12 +4775,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="str">
+      <c r="B2" s="112" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5013,24 +5013,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5102,12 +5102,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="str">
+      <c r="B2" s="112" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5340,24 +5340,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5429,12 +5429,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="117" t="str">
+      <c r="B2" s="118" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5667,24 +5667,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5756,12 +5756,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="117" t="str">
+      <c r="B2" s="118" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5994,24 +5994,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6083,12 +6083,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="117" t="str">
+      <c r="B2" s="118" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6321,24 +6321,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6410,12 +6410,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="122" t="str">
+      <c r="B2" s="123" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6648,24 +6648,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6709,11 +6709,11 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6724,28 +6724,26 @@
     <col min="5" max="5" width="16.81640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="21.453125" style="33" customWidth="1"/>
     <col min="8" max="8" width="16.81640625" style="33" customWidth="1"/>
-    <col min="9" max="9" width="1.81640625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="34" customWidth="1"/>
-    <col min="11" max="13" width="8.90625" style="34"/>
-    <col min="14" max="14" width="13.7265625" style="34" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="34"/>
+    <col min="9" max="9" width="8.81640625" style="34" customWidth="1"/>
+    <col min="10" max="12" width="8.90625" style="34"/>
+    <col min="13" max="13" width="13.7265625" style="34" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="127" t="str">
+      <c r="B1" s="128" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
       <c r="B2" s="23" t="str">
         <f>週の始まり</f>
@@ -6775,9 +6773,8 @@
         <f t="shared" si="0"/>
         <v>土曜日</v>
       </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
       <c r="B3" s="88">
         <f t="array" ref="B3:H3">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+1</f>
@@ -6801,9 +6798,8 @@
       <c r="H3" s="79">
         <v>44380</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58"/>
       <c r="B4" s="89"/>
       <c r="C4" s="67"/>
@@ -6814,9 +6810,8 @@
       </c>
       <c r="G4" s="67"/>
       <c r="H4" s="80"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:15" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>10</v>
       </c>
@@ -6829,9 +6824,8 @@
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="81"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
         <v>9</v>
       </c>
@@ -6846,15 +6840,14 @@
         <v>13</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="I6" s="15"/>
-      <c r="L6" s="140" t="s">
+      <c r="K6" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="142"/>
-    </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="136"/>
+    </row>
+    <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="91">
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
@@ -6878,16 +6871,15 @@
       <c r="H7" s="82">
         <v>44387</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="37"/>
-    </row>
-    <row r="8" spans="1:16" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="128" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="129" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="83"/>
@@ -6903,15 +6895,15 @@
         <v>18</v>
       </c>
       <c r="H8" s="83"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="36"/>
-    </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="129"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="36"/>
+    </row>
+    <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="130"/>
       <c r="B9" s="92"/>
       <c r="C9" s="69" t="s">
         <v>15</v>
@@ -6927,15 +6919,14 @@
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="84"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="66"/>
-    </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="66"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="66"/>
+    </row>
+    <row r="10" spans="1:15" s="37" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>9</v>
       </c>
@@ -6948,13 +6939,12 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="I10" s="15"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="144"/>
-    </row>
-    <row r="11" spans="1:16" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="139"/>
+    </row>
+    <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="93">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
@@ -6978,15 +6968,14 @@
       <c r="H11" s="85">
         <v>44394</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:16" s="66" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="37"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" s="66" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="109"/>
       <c r="B12" s="106"/>
       <c r="C12" s="108" t="s">
@@ -6999,14 +6988,14 @@
       </c>
       <c r="G12" s="78"/>
       <c r="H12" s="87"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-    </row>
-    <row r="13" spans="1:16" s="37" customFormat="1" ht="142.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" s="37" customFormat="1" ht="142.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>10</v>
       </c>
@@ -7019,9 +7008,8 @@
       <c r="F13" s="54"/>
       <c r="G13" s="26"/>
       <c r="H13" s="81"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>9</v>
       </c>
@@ -7032,9 +7020,8 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="91">
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
@@ -7058,9 +7045,8 @@
       <c r="H15" s="82">
         <v>44401</v>
       </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="97"/>
       <c r="C16" s="96"/>
@@ -7073,9 +7059,8 @@
         <v>20</v>
       </c>
       <c r="H16" s="100"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>10</v>
       </c>
@@ -7086,9 +7071,8 @@
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
       <c r="H17" s="86"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:14" s="37" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>9</v>
       </c>
@@ -7099,13 +7083,12 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-    </row>
-    <row r="19" spans="1:14" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+    </row>
+    <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="95">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
@@ -7129,13 +7112,12 @@
       <c r="H19" s="85">
         <v>44408</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-    </row>
-    <row r="20" spans="1:14" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+    </row>
+    <row r="20" spans="1:13" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="98"/>
       <c r="B20" s="106"/>
       <c r="C20" s="101"/>
@@ -7150,12 +7132,12 @@
         <v>19</v>
       </c>
       <c r="H20" s="87"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-    </row>
-    <row r="21" spans="1:14" s="37" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+    </row>
+    <row r="21" spans="1:13" s="37" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>10</v>
       </c>
@@ -7166,13 +7148,12 @@
       <c r="F21" s="102"/>
       <c r="G21" s="26"/>
       <c r="H21" s="81"/>
-      <c r="I21" s="15"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-    </row>
-    <row r="22" spans="1:14" s="37" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+    </row>
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
         <v>9</v>
       </c>
@@ -7183,13 +7164,12 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="15"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-    </row>
-    <row r="23" spans="1:14" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+    </row>
+    <row r="23" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="56">
         <f t="array" ref="B23:C23">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+36</f>
@@ -7198,34 +7178,32 @@
       <c r="C23" s="46">
         <v>44410</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:14" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="125"/>
+    </row>
+    <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62"/>
       <c r="B24" s="57"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="15"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K6:N11"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="D23:H23"/>
     <mergeCell ref="D24:H24"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="L6:O11"/>
   </mergeCells>
   <phoneticPr fontId="33"/>
   <conditionalFormatting sqref="B19:H20 B23:C23">
@@ -7289,12 +7267,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="122" t="str">
+      <c r="B2" s="123" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7527,24 +7505,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="123" t="s">
+      <c r="D14" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7616,12 +7594,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="134" t="str">
+      <c r="B2" s="143" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7854,24 +7832,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="136"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7910,21 +7888,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8149,19 +8127,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC6A718-D64C-474D-9866-6FD4FCE9373F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47B415-63EF-4141-8B3F-7531D512026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>メモ</t>
   </si>
@@ -196,31 +196,6 @@
     </rPh>
     <rPh sb="9" eb="13">
       <t>ガメンセッケイ</t>
-    </rPh>
-    <phoneticPr fontId="33"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-①DB設計書
-②機能一覧
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　→終了後、全体レビュー</t>
-    </r>
-    <rPh sb="4" eb="7">
-      <t>セッケイショ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>キノウイチラン</t>
     </rPh>
     <phoneticPr fontId="33"/>
   </si>
@@ -458,6 +433,97 @@
     </rPh>
     <phoneticPr fontId="33"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+①DB設計書
+②画面/機能設計
+　 機能一覧
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　→終了後、全体レビュー
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>③項目定義</t>
+    </r>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>・DB定義：7割くらい（すごい）
+・１チーム：アップデート画面を
+　　　　　　　　修正/変更
+・２チーム：検索/検索結果を
+　　　　　　　　修正/変更
+・３チーム：終了</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +536,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -759,6 +825,19 @@
       <b/>
       <sz val="14"/>
       <color theme="1" tint="0.14999847407452621"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1890,7 +1969,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2275,6 +2354,33 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2293,33 +2399,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2334,6 +2413,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3390,6 +3472,56 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1406114</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F8FF01-6873-4D25-B241-78C5873FB062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3674185" y="3279738"/>
+          <a:ext cx="1677744" cy="1982544"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6711,9 +6843,9 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6:N11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6732,12 +6864,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="128" t="str">
+      <c r="B1" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -6840,12 +6972,12 @@
         <v>13</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="K6" s="134" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="136"/>
+      <c r="K6" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="130"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
@@ -6856,10 +6988,10 @@
       <c r="C7" s="46">
         <v>44382</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="148">
         <v>44383</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="77">
         <v>44384</v>
       </c>
       <c r="F7" s="46">
@@ -6872,14 +7004,14 @@
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="139"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="133"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="138" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="83"/>
@@ -6892,41 +7024,41 @@
         <v>8</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="83"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
-      <c r="N8" s="139"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="133"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="92"/>
       <c r="C9" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="70" t="s">
         <v>16</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>17</v>
       </c>
       <c r="G9" s="65"/>
       <c r="H9" s="84"/>
       <c r="J9" s="66"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="139"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="133"/>
       <c r="O9" s="66"/>
     </row>
-    <row r="10" spans="1:15" s="37" customFormat="1" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>9</v>
       </c>
@@ -6934,15 +7066,17 @@
       <c r="C10" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="64" t="s">
+        <v>27</v>
+      </c>
       <c r="E10" s="51"/>
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
       <c r="H10" s="51"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="133"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -6969,22 +7103,22 @@
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="142"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="66" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="109"/>
       <c r="B12" s="106"/>
       <c r="C12" s="108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="110"/>
       <c r="E12" s="110"/>
       <c r="F12" s="78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="78"/>
       <c r="H12" s="87"/>
@@ -7000,11 +7134,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="107"/>
-      <c r="C13" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
+      <c r="C13" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="141"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="54"/>
       <c r="G13" s="26"/>
       <c r="H13" s="81"/>
@@ -7053,10 +7187,10 @@
       <c r="D16" s="76"/>
       <c r="E16" s="99"/>
       <c r="F16" s="97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="100"/>
     </row>
@@ -7122,14 +7256,14 @@
       <c r="B20" s="106"/>
       <c r="C20" s="101"/>
       <c r="D20" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="103" t="s">
         <v>21</v>
-      </c>
-      <c r="E20" s="103" t="s">
-        <v>22</v>
       </c>
       <c r="F20" s="103"/>
       <c r="G20" s="105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="87"/>
       <c r="J20" s="111"/>
@@ -7888,24 +8022,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8126,25 +8242,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8161,4 +8277,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D47B415-63EF-4141-8B3F-7531D512026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4D865-AB4B-4B0E-BDD0-9311A943C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="0" windowWidth="17400" windowHeight="12108" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 月" sheetId="14" state="hidden" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>メモ</t>
   </si>
@@ -196,33 +196,6 @@
     </rPh>
     <rPh sb="9" eb="13">
       <t>ガメンセッケイ</t>
-    </rPh>
-    <phoneticPr fontId="33"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-①ファイル構成一覧表
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="0.499984740745262"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　→終了後、レビュー</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シュウリョウゴ</t>
     </rPh>
     <phoneticPr fontId="33"/>
   </si>
@@ -486,14 +459,14 @@
     <phoneticPr fontId="33"/>
   </si>
   <si>
-    <t>・DB定義：7割くらい（すごい）
+    <t>・DB設計：7割くらい（すごい）
 ・１チーム：アップデート画面を
 　　　　　　　　修正/変更
 ・２チーム：検索/検索結果を
 　　　　　　　　修正/変更
 ・３チーム：終了</t>
     <rPh sb="3" eb="5">
-      <t>テイギ</t>
+      <t>セッケイ</t>
     </rPh>
     <rPh sb="7" eb="8">
       <t>ワリ</t>
@@ -521,6 +494,225 @@
     </rPh>
     <rPh sb="82" eb="84">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+①ファイル構成一覧表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="3" tint="0.499984740745262"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　→終了後、チェック
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">②外部設計（項目定義）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>③以上が終わり次第、担当決め
+　早ければプログラミングにGO</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シュウリョウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>コウモクテイギ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>・DB設計：
+　　完成
+・外部設計：
+　　項目定義以外完成
+・内部設計：
+　　DAO以外はぼちぼち</t>
+    <rPh sb="31" eb="35">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>・外部設計：完成
+・内部設計：完成
+・他：勉強会</t>
+    <rPh sb="1" eb="5">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>開発スタート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+〇森山班：登録関係
+〇近藤班：検索関係
+〇椹班：データ取得関係</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.14999847407452621"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+〇DB班：DB関係</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モリヤマハン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>コンドウハン</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ケンサクカンケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>サワラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇森山班：
+　　jsp8割終了（JS除く）
+〇近藤班：
+〇椹班：
+〇DB班：</t>
+    <rPh sb="1" eb="4">
+      <t>モリヤマハン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>コンドウハン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サワラ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハン</t>
     </rPh>
     <phoneticPr fontId="33"/>
   </si>
@@ -536,7 +728,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -838,6 +1030,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1969,7 +2167,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2165,9 +2363,6 @@
     <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2306,6 +2501,9 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2414,8 +2612,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3522,6 +3726,106 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1402081</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6133EF1E-9DAB-465A-B323-A6A2A304D927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359550" y="3279738"/>
+          <a:ext cx="1394460" cy="1973580"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1792941</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1362635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EA2CDF-9074-4EA0-9F01-1CCFCEC3CA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6892515" y="3279738"/>
+          <a:ext cx="1785320" cy="1964615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6844,15 +7148,15 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.26953125" style="53" customWidth="1"/>
     <col min="2" max="3" width="16.81640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="20" style="33" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" style="33" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="33" customWidth="1"/>
     <col min="6" max="7" width="21.453125" style="33" customWidth="1"/>
     <col min="8" max="8" width="16.81640625" style="33" customWidth="1"/>
@@ -6908,7 +7212,7 @@
     </row>
     <row r="3" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
-      <c r="B3" s="88">
+      <c r="B3" s="87">
         <f t="array" ref="B3:H3">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+1</f>
         <v>44374</v>
       </c>
@@ -6927,35 +7231,35 @@
       <c r="G3" s="45">
         <v>44379</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="78">
         <v>44380</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="73" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="90"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
@@ -6973,7 +7277,7 @@
       </c>
       <c r="H6" s="51"/>
       <c r="K6" s="128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" s="129"/>
       <c r="M6" s="129"/>
@@ -6981,26 +7285,26 @@
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="91">
+      <c r="B7" s="90">
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
         <v>44381</v>
       </c>
       <c r="C7" s="46">
         <v>44382</v>
       </c>
-      <c r="D7" s="148">
+      <c r="D7" s="111">
         <v>44383</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="111">
         <v>44384</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="111">
         <v>44385</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="76">
         <v>44386</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="81">
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
@@ -7010,23 +7314,23 @@
       <c r="N7" s="133"/>
       <c r="O7" s="37"/>
     </row>
-    <row r="8" spans="1:15" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" s="65" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="72" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="83"/>
+      <c r="G8" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="82"/>
       <c r="J8" s="36"/>
       <c r="K8" s="131"/>
       <c r="L8" s="132"/>
@@ -7036,27 +7340,29 @@
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="139"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="84"/>
-      <c r="J9" s="66"/>
+      <c r="D9" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="J9" s="65"/>
       <c r="K9" s="131"/>
       <c r="L9" s="132"/>
       <c r="M9" s="132"/>
       <c r="N9" s="133"/>
-      <c r="O9" s="66"/>
+      <c r="O9" s="65"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
@@ -7067,11 +7373,17 @@
         <v>14</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+        <v>26</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="150" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="51"/>
       <c r="K10" s="131"/>
       <c r="L10" s="132"/>
@@ -7080,7 +7392,7 @@
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="93">
+      <c r="B11" s="92">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
         <v>44388</v>
       </c>
@@ -7099,7 +7411,7 @@
       <c r="G11" s="47">
         <v>44393</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="84">
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
@@ -7109,19 +7421,19 @@
       <c r="N11" s="136"/>
       <c r="O11" s="37"/>
     </row>
-    <row r="12" spans="1:15" s="66" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="87"/>
+    <row r="12" spans="1:15" s="65" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="108"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="86"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -7133,15 +7445,15 @@
       <c r="A13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="107"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="141"/>
       <c r="E13" s="142"/>
       <c r="F13" s="54"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="81"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
@@ -7157,7 +7469,7 @@
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
-      <c r="B15" s="91">
+      <c r="B15" s="90">
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
         <v>44395</v>
       </c>
@@ -7170,41 +7482,41 @@
       <c r="E15" s="46">
         <v>44398</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="81">
         <v>44399</v>
       </c>
-      <c r="G15" s="82">
+      <c r="G15" s="81">
         <v>44400</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="81">
         <v>44401</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="100"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="99"/>
     </row>
     <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
@@ -7217,14 +7529,14 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
-      <c r="B19" s="95">
+      <c r="B19" s="94">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
         <v>44402</v>
       </c>
@@ -7243,49 +7555,49 @@
       <c r="G19" s="47">
         <v>44407</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="84">
         <v>44408</v>
       </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-    </row>
-    <row r="20" spans="1:13" s="66" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="98"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="104" t="s">
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+    </row>
+    <row r="20" spans="1:13" s="65" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="97"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="87"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="86"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
     </row>
     <row r="21" spans="1:13" s="37" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="81"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
+      <c r="H21" s="80"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
     </row>
     <row r="22" spans="1:13" s="37" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
@@ -7298,10 +7610,10 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
     </row>
     <row r="23" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
@@ -8022,6 +8334,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8242,25 +8572,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8277,22 +8607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D4D865-AB4B-4B0E-BDD0-9311A943C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF2D735-E48D-420D-BF25-78DD6C9DF742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="0" windowWidth="17400" windowHeight="12108" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 月" sheetId="14" state="hidden" r:id="rId1"/>
@@ -728,7 +728,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -987,14 +987,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1" tint="0.14999847407452621"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFC00000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2167,7 +2159,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2396,9 +2388,6 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="47" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="40" fillId="0" borderId="47" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2498,11 +2487,20 @@
     <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2552,34 +2550,34 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2588,13 +2586,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -2611,15 +2609,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3826,6 +3815,56 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1800562</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1783976</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1362635</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83ED4443-273D-42DF-9559-A171AA0B17B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8685456" y="3279738"/>
+          <a:ext cx="1785320" cy="1964615"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4165,12 +4204,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="112" t="str">
+      <c r="B2" s="114" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4212,10 +4251,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="117"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -4449,13 +4488,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -4465,11 +4504,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4557,12 +4596,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="143" t="str">
+      <c r="B2" s="145" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4795,24 +4834,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="144" t="s">
+      <c r="D14" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -4884,12 +4923,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="143" t="str">
+      <c r="B2" s="145" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5122,24 +5161,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="144" t="s">
+      <c r="D14" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5211,12 +5250,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="112" t="str">
+      <c r="B2" s="114" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5449,24 +5488,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5538,12 +5577,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="112" t="str">
+      <c r="B2" s="114" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5776,24 +5815,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5865,12 +5904,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="118" t="str">
+      <c r="B2" s="120" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6103,24 +6142,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6192,12 +6231,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="118" t="str">
+      <c r="B2" s="120" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6430,24 +6469,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6519,12 +6558,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="118" t="str">
+      <c r="B2" s="120" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6757,24 +6796,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6846,12 +6885,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="123" t="str">
+      <c r="B2" s="125" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7084,24 +7123,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7149,7 +7188,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7168,12 +7207,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="137" t="str">
+      <c r="B1" s="139" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7212,7 +7251,7 @@
     </row>
     <row r="3" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
-      <c r="B3" s="87">
+      <c r="B3" s="86">
         <f t="array" ref="B3:H3">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+1</f>
         <v>44374</v>
       </c>
@@ -7231,13 +7270,13 @@
       <c r="G3" s="45">
         <v>44379</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="77">
         <v>44380</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58"/>
-      <c r="B4" s="88"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
@@ -7245,13 +7284,13 @@
         <v>12</v>
       </c>
       <c r="G4" s="66"/>
-      <c r="H4" s="79"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -7259,7 +7298,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="73"/>
-      <c r="H5" s="80"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
@@ -7276,49 +7315,49 @@
         <v>13</v>
       </c>
       <c r="H6" s="51"/>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="132"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="90">
+      <c r="B7" s="89">
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
         <v>44381</v>
       </c>
       <c r="C7" s="46">
         <v>44382</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="110">
         <v>44383</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="110">
         <v>44384</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="110">
         <v>44385</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="110">
         <v>44386</v>
       </c>
-      <c r="H7" s="81">
+      <c r="H7" s="80">
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="135"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="65" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="67" t="s">
         <v>7</v>
       </c>
@@ -7330,17 +7369,17 @@
       <c r="G8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="81"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139"/>
-      <c r="B9" s="91"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="68" t="s">
         <v>15</v>
       </c>
@@ -7353,15 +7392,15 @@
       <c r="F9" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="83"/>
+      <c r="H9" s="82"/>
       <c r="J9" s="65"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="135"/>
       <c r="O9" s="65"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
@@ -7378,21 +7417,21 @@
       <c r="E10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="148" t="s">
+      <c r="F10" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="150" t="s">
+      <c r="G10" s="113" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="51"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="135"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="92">
+      <c r="B11" s="91">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
         <v>44388</v>
       </c>
@@ -7411,29 +7450,29 @@
       <c r="G11" s="47">
         <v>44393</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="83">
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="138"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="65" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="107" t="s">
+      <c r="A12" s="107"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="77" t="s">
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="86"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="85"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -7445,15 +7484,15 @@
       <c r="A13" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="140" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="142"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="54"/>
       <c r="G13" s="26"/>
-      <c r="H13" s="80"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
@@ -7469,7 +7508,7 @@
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
         <v>44395</v>
       </c>
@@ -7482,41 +7521,41 @@
       <c r="E15" s="46">
         <v>44398</v>
       </c>
-      <c r="F15" s="81">
+      <c r="F15" s="80">
         <v>44399</v>
       </c>
-      <c r="G15" s="81">
+      <c r="G15" s="80">
         <v>44400</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="80">
         <v>44401</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="75"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="96" t="s">
+      <c r="E16" s="97"/>
+      <c r="F16" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="99"/>
+      <c r="H16" s="98"/>
     </row>
     <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="93"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
     </row>
     <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
@@ -7529,14 +7568,14 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
-      <c r="B19" s="94">
+      <c r="B19" s="93">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
         <v>44402</v>
       </c>
@@ -7555,49 +7594,49 @@
       <c r="G19" s="47">
         <v>44407</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="83">
         <v>44408</v>
       </c>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="1:13" s="65" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="97"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="103" t="s">
+      <c r="A20" s="96"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="104" t="s">
+      <c r="F20" s="101"/>
+      <c r="G20" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="86"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
+      <c r="H20" s="85"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
     </row>
     <row r="21" spans="1:13" s="37" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="80"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
+      <c r="H21" s="79"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
     </row>
     <row r="22" spans="1:13" s="37" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
@@ -7610,10 +7649,10 @@
       <c r="F22" s="51"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
     </row>
     <row r="23" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
@@ -7624,23 +7663,23 @@
       <c r="C23" s="46">
         <v>44410</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="62"/>
       <c r="B24" s="57"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7713,12 +7752,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="123" t="str">
+      <c r="B2" s="125" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7951,24 +7990,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="124" t="s">
+      <c r="D14" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8040,12 +8079,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="143" t="str">
+      <c r="B2" s="145" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8278,24 +8317,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="144" t="s">
+      <c r="D14" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="149"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8334,21 +8373,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8573,19 +8612,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF2D735-E48D-420D-BF25-78DD6C9DF742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA1E4E2-6337-450C-9ECC-1286346F4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>メモ</t>
   </si>
@@ -714,6 +714,159 @@
     <rPh sb="36" eb="37">
       <t>ハン</t>
     </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇森山班
+　学生新規登録jsp、
+　アップロードaction・service
+〇近藤班
+　サーブレット、
+　検索周りaction・service
+〇椹班
+　詳細周り
+〇DB班
+　データベース</t>
+    <rPh sb="1" eb="4">
+      <t>モリヤマハン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ガクセイシンキトウロク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>コンドウハン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>サワラ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇森山班
+　学生新規登録jsp、
+　アップロードaction・service
+　　→苦戦中
+〇近藤班
+　概ね終了
+〇椹班
+　概ね終了
+〇DB班
+　概ね終了</t>
+    <rPh sb="1" eb="4">
+      <t>モリヤマハン</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ガクセイシンキトウロク</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>クセンチュウ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>コンドウハン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オオム</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>サワラ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オオム</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オオム</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇Insert周り
+　　アップロードaction・service
+　　新規登録jsp
+　　　→完成を目指す
+〇他
+　　ほぼ終了している
+　　　→手が空いた人から手が回っていない箇所に着手</t>
+    <rPh sb="7" eb="8">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>メザ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>チャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇Insert周り
+　　アップロードaction・service
+　　新規登録jsp
+　　　→
+〇CSS
+〇</t>
     <phoneticPr fontId="33"/>
   </si>
 </sst>
@@ -1250,7 +1403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1707,19 +1860,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color theme="6" tint="0.39997558519241921"/>
       </right>
@@ -1779,185 +1919,9 @@
       <left style="thick">
         <color theme="6" tint="0.39997558519241921"/>
       </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF92D050"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF00B0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFFF00"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFFF00"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFFC000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFFC000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFCC0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="7" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFCCECFF"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1974,34 +1938,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFCCECFF"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color rgb="FFCCECFF"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
       <top style="thick">
         <color rgb="FFCCECFF"/>
       </top>
@@ -2090,6 +2028,349 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFF00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFF00"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFCCECFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFCCECFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFCC0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFCCECFF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCECFF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2159,7 +2440,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2322,102 +2603,39 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="0" borderId="25" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="48" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="49" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="50" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="52" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="47" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="47" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="40" fillId="6" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="6" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="25" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -2433,181 +2651,304 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="46" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="25" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="53" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="54" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="39" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="56" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="57" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="6" borderId="59" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="45" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="60" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="46" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="62" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="63" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="71" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="72" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="73" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="75" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="39" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="20" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -3307,256 +3648,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>777240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23ED549-1872-4FD2-A2A6-91A67303CD60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6774628" y="1648161"/>
-          <a:ext cx="1786666" cy="1379220"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1402080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F061361B-F529-4083-83CF-56178A7A3415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2279765" y="3014056"/>
-          <a:ext cx="1394460" cy="1973580"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1792941</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>777240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43E8626-B012-4BEE-B61A-83D7423F5834}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8567569" y="1648161"/>
-          <a:ext cx="1786666" cy="1074420"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1799216</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>779930</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC9726DF-59C7-4F8E-BF77-A46196C70301}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10360510" y="1648161"/>
-          <a:ext cx="1410149" cy="1381910"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16585</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3586</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF1B40E-9D55-4063-AB18-037F1DB8E91F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="877197" y="3835549"/>
-          <a:ext cx="1394460" cy="1973580"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5255</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -3667,202 +3758,717 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1406114</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>277905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1621971</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>654423</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="乗算記号 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F8FF01-6873-4D25-B241-78C5873FB062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBEF542-B344-4F9B-8CD7-6A3DA68DB1A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3674185" y="3279738"/>
-          <a:ext cx="1677744" cy="1982544"/>
+          <a:off x="7053303" y="1410019"/>
+          <a:ext cx="1470211" cy="1475975"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="mathMultiply">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146638</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>277905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1616849</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>654423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="乗算記号 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B3EB59-0FE0-42EB-9B68-D67FD99A0207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8844324" y="1410019"/>
+          <a:ext cx="1470211" cy="1475975"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1368399</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>439269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16008</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>537881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="乗算記号 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C47BE2-C995-4501-B9F7-B49FE326DA7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228370" y="4336355"/>
+          <a:ext cx="1477895" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>140236</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>439269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1610447</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>537881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="乗算記号 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40A9D79-3594-40D0-896E-9CE4CA8A6C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3830493" y="4336355"/>
+          <a:ext cx="1470211" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1730829</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>439269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1402081</xdr:colOff>
+      <xdr:colOff>1412581</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>537881</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="乗算記号 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6133EF1E-9DAB-465A-B323-A6A2A304D927}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA11A1A-F3CA-4886-85B7-8C38FECB16D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5359550" y="3279738"/>
-          <a:ext cx="1394460" cy="1973580"/>
+          <a:off x="5421086" y="4336355"/>
+          <a:ext cx="1477895" cy="1470212"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="mathMultiply">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>7621</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>133191</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>439269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1792941</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1362635</xdr:rowOff>
+      <xdr:colOff>1603402</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>537881</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="乗算記号 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EA2CDF-9074-4EA0-9F01-1CCFCEC3CA66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E17D81C-6965-4763-BF3E-F6B8E6DB2203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6892515" y="3279738"/>
-          <a:ext cx="1785320" cy="1964615"/>
+          <a:off x="7034734" y="4336355"/>
+          <a:ext cx="1470211" cy="1470212"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="mathMultiply">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>439269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1622612</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>537881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="乗算記号 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C34A1B4-46A0-4493-9402-182D6648295F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839201" y="4320987"/>
+          <a:ext cx="1470211" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1763487</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1070640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>516109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="乗算記号 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE7B1E7-A869-45E0-B670-D506AC856AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5453744" y="8396726"/>
+          <a:ext cx="1470211" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1800562</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1070640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1783976</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1362635</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1622612</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>516109</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="乗算記号 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83ED4443-273D-42DF-9559-A171AA0B17B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E418BF-489D-4DA8-AB22-FA317B6E2475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8685456" y="3279738"/>
-          <a:ext cx="1785320" cy="1964615"/>
+          <a:off x="7053944" y="8396726"/>
+          <a:ext cx="1470211" cy="1470212"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="mathMultiply">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>174173</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1070640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1644384</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>516109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="乗算記号 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD04F440-DB95-4A94-8418-4082310B93B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3864430" y="8396726"/>
+          <a:ext cx="1470211" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1382487</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1070640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>516109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="乗算記号 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC51FB4E-1253-4503-ADAF-B31A44A25F0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2242458" y="8396726"/>
+          <a:ext cx="1470211" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4204,12 +4810,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="80" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4251,10 +4857,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="119" t="s">
+      <c r="K3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="119"/>
+      <c r="L3" s="85"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -4488,13 +5094,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -4504,11 +5110,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -4596,12 +5202,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="145" t="str">
+      <c r="B2" s="109" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4834,24 +5440,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -4923,12 +5529,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="145" t="str">
+      <c r="B2" s="109" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5161,24 +5767,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5250,12 +5856,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="80" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5488,24 +6094,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5577,12 +6183,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="114" t="str">
+      <c r="B2" s="80" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5815,24 +6421,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5904,12 +6510,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="str">
+      <c r="B2" s="86" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6142,24 +6748,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6231,12 +6837,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="str">
+      <c r="B2" s="86" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6469,24 +7075,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6558,12 +7164,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="120" t="str">
+      <c r="B2" s="86" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6796,24 +7402,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6885,12 +7491,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="str">
+      <c r="B2" s="91" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7123,24 +7729,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7186,9 +7792,9 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7207,19 +7813,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="139" t="str">
+      <c r="B1" s="105" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+    <row r="2" spans="1:15" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="56"/>
       <c r="B2" s="23" t="str">
         <f>週の始まり</f>
         <v>日曜日</v>
@@ -7250,229 +7856,229 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="86">
+      <c r="A3" s="56"/>
+      <c r="B3" s="114">
         <f t="array" ref="B3:H3">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+1</f>
         <v>44374</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="123">
         <v>44375</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="119">
         <v>44376</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="119">
         <v>44377</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="119">
         <v>44378</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="119">
         <v>44379</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="65">
         <v>44380</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="58"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="72" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="78"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="70" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="G5" s="133"/>
+      <c r="H5" s="67"/>
+    </row>
+    <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="64" t="s">
+      <c r="B6" s="116"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="K6" s="130" t="s">
+      <c r="H6" s="117"/>
+      <c r="K6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="132"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="98"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="89">
+      <c r="A7" s="59"/>
+      <c r="B7" s="126">
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
         <v>44381</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="134">
         <v>44382</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="137">
         <v>44383</v>
       </c>
-      <c r="E7" s="110">
+      <c r="E7" s="137">
         <v>44384</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="137">
         <v>44385</v>
       </c>
-      <c r="G7" s="110">
+      <c r="G7" s="137">
         <v>44386</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="68">
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="135"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101"/>
       <c r="O7" s="37"/>
     </row>
-    <row r="8" spans="1:15" s="65" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="140" t="s">
+    <row r="8" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="71" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="64"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="135"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="107"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="65"/>
-    </row>
-    <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="H9" s="69"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="62"/>
+    </row>
+    <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="64" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="135"/>
+      <c r="H10" s="117"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="91">
+      <c r="B11" s="142">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
         <v>44388</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="143">
         <v>44389</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="144">
         <v>44390</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="145">
         <v>44391</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="152">
         <v>44392</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="152">
         <v>44393</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="71">
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="138"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="104"/>
       <c r="O11" s="37"/>
     </row>
-    <row r="12" spans="1:15" s="65" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="107"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="106" t="s">
+    <row r="12" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="77"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="76" t="s">
+      <c r="D12" s="78"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="76"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="150"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -7480,206 +8086,214 @@
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
     </row>
-    <row r="13" spans="1:15" s="37" customFormat="1" ht="142.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:15" s="37" customFormat="1" ht="159" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="142" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:15" s="37" customFormat="1" ht="151.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="165" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="117"/>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="89">
+      <c r="A15" s="56"/>
+      <c r="B15" s="126">
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
         <v>44395</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="134">
         <v>44396</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="134">
         <v>44397</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="134">
         <v>44398</v>
       </c>
-      <c r="F15" s="80">
+      <c r="F15" s="74">
         <v>44399</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="157">
         <v>44400</v>
       </c>
-      <c r="H15" s="80">
+      <c r="H15" s="63">
         <v>44401</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="95" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="95" t="s">
+      <c r="G16" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="98"/>
-    </row>
-    <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-    </row>
-    <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="B17" s="148"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="70"/>
+    </row>
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="93">
+      <c r="A19" s="56"/>
+      <c r="B19" s="149">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
         <v>44402</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="152">
         <v>44403</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="152">
         <v>44404</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="152">
         <v>44405</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="152">
         <v>44406</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="152">
         <v>44407</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="71">
         <v>44408</v>
       </c>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-    </row>
-    <row r="20" spans="1:13" s="65" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="102" t="s">
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+    </row>
+    <row r="20" spans="1:13" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="73"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="103" t="s">
+      <c r="F20" s="153"/>
+      <c r="G20" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
+      <c r="H20" s="150"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
     </row>
     <row r="21" spans="1:13" s="37" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="79"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-    </row>
-    <row r="22" spans="1:13" s="37" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="67"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+    </row>
+    <row r="22" spans="1:13" s="37" customFormat="1" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="117"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
     </row>
     <row r="23" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="56">
+      <c r="A23" s="56"/>
+      <c r="B23" s="54">
         <f t="array" ref="B23:C23">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+36</f>
         <v>44409</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="118">
         <v>44410</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="127"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="129"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7752,12 +8366,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="str">
+      <c r="B2" s="91" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7990,24 +8604,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D14" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8079,12 +8693,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="145" t="str">
+      <c r="B2" s="109" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8317,24 +8931,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8373,21 +8987,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8612,19 +9226,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA1E4E2-6337-450C-9ECC-1286346F4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B7EA7B-7974-4ACF-B127-4B7239B02E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,11 +862,71 @@
   </si>
   <si>
     <t>〇Insert周り
-　　アップロードaction・service
-　　新規登録jsp
-　　　→
+　アップロードaction・service
+　ひとつのメソッドでやってたところを分けよう、それにあたり若干変更
+　新規登録jsp
+　　→保留？
+〇Select
+　アクション・サービスできてる
+　jsp未完成
+〇Update周り
+　UpdateDeleteサービスアクション大枠完成　見直し
+　サーブレット　そこそこ
+〇DAO
+　各DAOの確認、修正
+　できてるサービスに関係するDAOの修正
+　サンプルデータの修正
 〇CSS
+　ヘッダー概ね完成
 〇</t>
+    <rPh sb="50" eb="51">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ホリュウ</t>
+    </rPh>
+    <rPh sb="111" eb="114">
+      <t>ミカンセイ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="148" eb="152">
+      <t>オオワクカンセイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>オオム</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>カンセイ</t>
+    </rPh>
     <phoneticPr fontId="33"/>
   </si>
 </sst>
@@ -2681,6 +2741,165 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="62" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="63" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="71" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="72" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="73" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="75" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="6" borderId="39" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2759,15 +2978,24 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2781,174 +3009,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="62" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="63" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="6" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="71" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="72" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="73" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="75" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="6" borderId="39" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -4471,6 +4531,71 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>130629</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1070640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1600840</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>516109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="乗算記号 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF1F81C-EAD0-44C8-B47C-3E0C15556545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8828315" y="8396726"/>
+          <a:ext cx="1470211" cy="1470212"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4810,12 +4935,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="str">
+      <c r="B2" s="133" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4857,10 +4982,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="85"/>
+      <c r="L3" s="138"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -5094,13 +5219,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -5110,11 +5235,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="137"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -5202,12 +5327,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="165" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5440,24 +5565,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5529,12 +5654,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="165" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5767,24 +5892,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5856,12 +5981,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="str">
+      <c r="B2" s="133" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6094,24 +6219,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="137"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6183,12 +6308,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="str">
+      <c r="B2" s="133" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6421,24 +6546,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="135"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="137"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6510,12 +6635,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="139" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6748,24 +6873,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6837,12 +6962,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="139" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7075,24 +7200,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7164,12 +7289,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="86" t="str">
+      <c r="B2" s="139" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7402,24 +7527,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7491,12 +7616,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7729,24 +7854,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7793,8 +7918,8 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7813,12 +7938,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="105" t="str">
+      <c r="B1" s="158" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7857,23 +7982,23 @@
     </row>
     <row r="3" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
-      <c r="B3" s="114">
+      <c r="B3" s="80">
         <f t="array" ref="B3:H3">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+1</f>
         <v>44374</v>
       </c>
-      <c r="C3" s="123">
+      <c r="C3" s="89">
         <v>44375</v>
       </c>
-      <c r="D3" s="119">
+      <c r="D3" s="85">
         <v>44376</v>
       </c>
-      <c r="E3" s="119">
+      <c r="E3" s="85">
         <v>44377</v>
       </c>
-      <c r="F3" s="119">
+      <c r="F3" s="85">
         <v>44378</v>
       </c>
-      <c r="G3" s="119">
+      <c r="G3" s="85">
         <v>44379</v>
       </c>
       <c r="H3" s="65">
@@ -7882,14 +8007,14 @@
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="130" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="122"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7897,188 +8022,188 @@
         <v>10</v>
       </c>
       <c r="B5" s="76"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="131" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="133"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="132" t="s">
+      <c r="B6" s="82"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="117"/>
-      <c r="K6" s="96" t="s">
+      <c r="H6" s="83"/>
+      <c r="K6" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="126">
+      <c r="B7" s="92">
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
         <v>44381</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="100">
         <v>44382</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="103">
         <v>44383</v>
       </c>
-      <c r="E7" s="137">
+      <c r="E7" s="103">
         <v>44384</v>
       </c>
-      <c r="F7" s="137">
+      <c r="F7" s="103">
         <v>44385</v>
       </c>
-      <c r="G7" s="137">
+      <c r="G7" s="103">
         <v>44386</v>
       </c>
       <c r="H7" s="68">
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="101"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="153"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="154"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="135" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="139" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="106" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="64"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="101"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="153"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="154"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="136" t="s">
+      <c r="A9" s="161"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="138" t="s">
+      <c r="E9" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="138" t="s">
+      <c r="F9" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="141" t="s">
+      <c r="G9" s="107" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="69"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
+      <c r="K9" s="152"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="154"/>
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="168" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="131" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="151" t="s">
+      <c r="F10" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="151" t="s">
+      <c r="G10" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="101"/>
+      <c r="H10" s="83"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="154"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="142">
+      <c r="B11" s="108">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
         <v>44388</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="109">
         <v>44389</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="110">
         <v>44390</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="111">
         <v>44391</v>
       </c>
-      <c r="F11" s="152">
+      <c r="F11" s="118">
         <v>44392</v>
       </c>
-      <c r="G11" s="152">
+      <c r="G11" s="118">
         <v>44393</v>
       </c>
       <c r="H11" s="71">
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="104"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="157"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="77"/>
       <c r="B12" s="75"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="112" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="78"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="153" t="s">
+      <c r="E12" s="113"/>
+      <c r="F12" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="153"/>
-      <c r="H12" s="150"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="116"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -8091,54 +8216,54 @@
         <v>10</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="164" t="s">
+      <c r="D13" s="163"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="164" t="s">
+      <c r="G13" s="127" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:15" s="37" customFormat="1" ht="151.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="37" customFormat="1" ht="282" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="165" t="s">
+      <c r="B14" s="82"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="165" t="s">
+      <c r="G14" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="117"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="126">
+      <c r="B15" s="92">
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
         <v>44395</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="100">
         <v>44396</v>
       </c>
-      <c r="D15" s="134">
+      <c r="D15" s="100">
         <v>44397</v>
       </c>
-      <c r="E15" s="134">
+      <c r="E15" s="100">
         <v>44398</v>
       </c>
       <c r="F15" s="74">
         <v>44399</v>
       </c>
-      <c r="G15" s="157">
+      <c r="G15" s="123">
         <v>44400</v>
       </c>
       <c r="H15" s="63">
@@ -8148,9 +8273,9 @@
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="72" t="s">
         <v>18</v>
       </c>
@@ -8163,23 +8288,23 @@
       <c r="A17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="132"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="116"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="117"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
       <c r="J18" s="79"/>
@@ -8189,23 +8314,23 @@
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
-      <c r="B19" s="149">
+      <c r="B19" s="115">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
         <v>44402</v>
       </c>
-      <c r="C19" s="152">
+      <c r="C19" s="118">
         <v>44403</v>
       </c>
-      <c r="D19" s="152">
+      <c r="D19" s="118">
         <v>44404</v>
       </c>
-      <c r="E19" s="152">
+      <c r="E19" s="118">
         <v>44405</v>
       </c>
-      <c r="F19" s="152">
+      <c r="F19" s="118">
         <v>44406</v>
       </c>
-      <c r="G19" s="152">
+      <c r="G19" s="118">
         <v>44407</v>
       </c>
       <c r="H19" s="71">
@@ -8219,18 +8344,18 @@
     <row r="20" spans="1:13" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="73"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="153" t="s">
+      <c r="C20" s="121"/>
+      <c r="D20" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="153" t="s">
+      <c r="E20" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="153"/>
-      <c r="G20" s="156" t="s">
+      <c r="F20" s="119"/>
+      <c r="G20" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="150"/>
+      <c r="H20" s="116"/>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
@@ -8241,11 +8366,11 @@
         <v>10</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="67"/>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
@@ -8256,13 +8381,13 @@
       <c r="A22" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="117"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="83"/>
       <c r="J22" s="79"/>
       <c r="K22" s="79"/>
       <c r="L22" s="79"/>
@@ -8274,26 +8399,26 @@
         <f t="array" ref="B23:C23">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+36</f>
         <v>44409</v>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="84">
         <v>44410</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="93"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="146"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="55"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8366,12 +8491,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8604,24 +8729,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8693,12 +8818,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="165" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8931,24 +9056,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="167"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8987,21 +9112,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9226,19 +9351,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B7EA7B-7974-4ACF-B127-4B7239B02E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247EA85C-5AAD-4872-B642-2A4EE542352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>メモ</t>
   </si>
@@ -217,13 +217,6 @@
     <t>祝日</t>
     <rPh sb="0" eb="2">
       <t>シュクジツ</t>
-    </rPh>
-    <phoneticPr fontId="33"/>
-  </si>
-  <si>
-    <t>開発・テスト</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
     </rPh>
     <phoneticPr fontId="33"/>
   </si>
@@ -861,6 +854,23 @@
     <phoneticPr fontId="33"/>
   </si>
   <si>
+    <t>開発・結合テスト</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>単体テスト（DAO）</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
     <t>〇Insert周り
 　アップロードaction・service
 　ひとつのメソッドでやってたところを分けよう、それにあたり若干変更
@@ -877,8 +887,7 @@
 　できてるサービスに関係するDAOの修正
 　サンプルデータの修正
 〇CSS
-　ヘッダー概ね完成
-〇</t>
+　ヘッダー概ね完成</t>
     <rPh sb="50" eb="51">
       <t>ワ</t>
     </rPh>
@@ -941,7 +950,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="d"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -1245,6 +1254,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -1463,7 +1478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2420,6 +2435,30 @@
       <left style="medium">
         <color theme="8" tint="0.39997558519241921"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
       <right style="medium">
         <color theme="8" tint="0.39997558519241921"/>
       </right>
@@ -2428,6 +2467,36 @@
       </top>
       <bottom style="thin">
         <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="8" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2500,7 +2569,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2864,9 +2933,6 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2891,125 +2957,143 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3708,8 +3792,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5255</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1393372</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>259708</xdr:rowOff>
     </xdr:from>
@@ -3732,8 +3816,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3685715" y="13533748"/>
-          <a:ext cx="1676400" cy="0"/>
+          <a:off x="2253343" y="16740679"/>
+          <a:ext cx="3238312" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4534,13 +4618,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
+      <xdr:colOff>1023257</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1070640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1600840</xdr:colOff>
+      <xdr:colOff>2493468</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>516109</xdr:rowOff>
     </xdr:to>
@@ -4557,7 +4641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8828315" y="8396726"/>
+          <a:off x="9720943" y="8396726"/>
           <a:ext cx="1470211" cy="1470212"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -4594,6 +4678,61 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1393372</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>259707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>259707</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5420154C-906B-4ECD-9143-74B136E99AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2253343" y="13496736"/>
+          <a:ext cx="4659086" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4935,12 +5074,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="133" t="str">
+      <c r="B2" s="131" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4982,10 +5121,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="138" t="s">
+      <c r="K3" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="138"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -5219,13 +5358,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -5235,11 +5374,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -5327,12 +5466,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="165" t="str">
+      <c r="B2" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5565,24 +5704,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="167"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5654,12 +5793,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="165" t="str">
+      <c r="B2" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5892,24 +6031,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="167"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5981,12 +6120,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="133" t="str">
+      <c r="B2" s="131" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6219,24 +6358,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6308,12 +6447,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="133" t="str">
+      <c r="B2" s="131" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6546,24 +6685,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6635,12 +6774,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="139" t="str">
+      <c r="B2" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6873,24 +7012,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6962,12 +7101,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="139" t="str">
+      <c r="B2" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7200,24 +7339,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7289,12 +7428,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="139" t="str">
+      <c r="B2" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7527,24 +7666,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7616,12 +7755,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="144" t="str">
+      <c r="B2" s="142" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7854,24 +7993,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7918,8 +8057,8 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -7928,7 +8067,8 @@
     <col min="2" max="3" width="16.81640625" style="33" customWidth="1"/>
     <col min="4" max="4" width="21.453125" style="33" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" style="33" customWidth="1"/>
-    <col min="6" max="7" width="21.453125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="42.36328125" style="33" customWidth="1"/>
     <col min="8" max="8" width="16.81640625" style="33" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" style="34" customWidth="1"/>
     <col min="10" max="12" width="8.90625" style="34"/>
@@ -7938,12 +8078,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="158" t="str">
+      <c r="B1" s="156" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8046,12 +8186,12 @@
         <v>13</v>
       </c>
       <c r="H6" s="83"/>
-      <c r="K6" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="151"/>
+      <c r="K6" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="149"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
@@ -8078,14 +8218,14 @@
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="153"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="154"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="93"/>
@@ -8102,36 +8242,36 @@
       </c>
       <c r="H8" s="64"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="154"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="152"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="94"/>
       <c r="C9" s="102" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G9" s="107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="69"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="154"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="152"/>
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8139,26 +8279,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="131" t="s">
+      <c r="D10" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="117" t="s">
-        <v>29</v>
-      </c>
       <c r="G10" s="117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="83"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
-      <c r="N10" s="154"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="152"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -8185,17 +8325,17 @@
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="155"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="77"/>
       <c r="B12" s="75"/>
       <c r="C12" s="112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="113"/>
@@ -8216,32 +8356,32 @@
         <v>10</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="162" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="127" t="s">
-        <v>34</v>
+      <c r="C13" s="160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="126" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="126" t="s">
+        <v>33</v>
       </c>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:15" s="37" customFormat="1" ht="282" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" s="37" customFormat="1" ht="363" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="61" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="82"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="128" t="s">
-        <v>35</v>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="127" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="83"/>
     </row>
@@ -8263,7 +8403,7 @@
       <c r="F15" s="74">
         <v>44399</v>
       </c>
-      <c r="G15" s="123">
+      <c r="G15" s="122">
         <v>44400</v>
       </c>
       <c r="H15" s="63">
@@ -8273,7 +8413,9 @@
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="120"/>
+      <c r="C16" s="174" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="120"/>
       <c r="E16" s="120"/>
       <c r="F16" s="72" t="s">
@@ -8289,11 +8431,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="114"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
       <c r="F17" s="114"/>
-      <c r="G17" s="132"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="70"/>
     </row>
     <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8344,15 +8486,14 @@
     <row r="20" spans="1:13" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="73"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="119" t="s">
+      <c r="C20" s="119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="119" t="s">
-        <v>20</v>
-      </c>
       <c r="F20" s="119"/>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="121" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="116"/>
@@ -8366,10 +8507,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="170"/>
       <c r="G21" s="86"/>
       <c r="H21" s="67"/>
       <c r="J21" s="79"/>
@@ -8383,7 +8524,7 @@
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
+      <c r="D22" s="172"/>
       <c r="E22" s="87"/>
       <c r="F22" s="87"/>
       <c r="G22" s="87"/>
@@ -8402,23 +8543,23 @@
       <c r="C23" s="84">
         <v>44410</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="146"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="144"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="55"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="148"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8430,7 +8571,7 @@
     <mergeCell ref="C13:E13"/>
   </mergeCells>
   <phoneticPr fontId="33"/>
-  <conditionalFormatting sqref="B19:H20 B23:C23">
+  <conditionalFormatting sqref="B23:C23 B19:H19 E20:H20 B20:C20">
     <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(DAY(B19)&gt;=1,DAY(B19)&lt;=15)</formula>
     </cfRule>
@@ -8491,12 +8632,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="144" t="str">
+      <c r="B2" s="142" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8729,24 +8870,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8818,12 +8959,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="165" t="str">
+      <c r="B2" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9056,24 +9197,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="167"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -9112,24 +9253,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -9350,25 +9473,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9385,4 +9508,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247EA85C-5AAD-4872-B642-2A4EE542352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAD6A1-6A42-4147-BDAA-BDEB86BB9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2963,6 +2963,27 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3073,27 +3094,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5074,12 +5074,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="138" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5121,10 +5121,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="136"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -5358,13 +5358,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -5374,11 +5374,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -5466,12 +5466,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="163" t="str">
+      <c r="B2" s="170" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5704,24 +5704,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5793,12 +5793,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="163" t="str">
+      <c r="B2" s="170" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6031,24 +6031,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6120,12 +6120,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="138" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6358,24 +6358,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6447,12 +6447,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="138" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6685,24 +6685,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6774,12 +6774,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7012,24 +7012,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7101,12 +7101,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7339,24 +7339,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7428,12 +7428,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7666,24 +7666,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7755,12 +7755,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="str">
+      <c r="B2" s="149" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7993,24 +7993,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="153"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -8069,7 +8069,7 @@
     <col min="5" max="5" width="16.81640625" style="33" customWidth="1"/>
     <col min="6" max="6" width="21.453125" style="33" customWidth="1"/>
     <col min="7" max="7" width="42.36328125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" style="33" customWidth="1"/>
     <col min="9" max="9" width="8.81640625" style="34" customWidth="1"/>
     <col min="10" max="12" width="8.90625" style="34"/>
     <col min="13" max="13" width="13.7265625" style="34" customWidth="1"/>
@@ -8078,12 +8078,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="156" t="str">
+      <c r="B1" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8186,12 +8186,12 @@
         <v>13</v>
       </c>
       <c r="H6" s="83"/>
-      <c r="K6" s="147" t="s">
+      <c r="K6" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="149"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="156"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
@@ -8218,14 +8218,14 @@
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="165" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="93"/>
@@ -8242,14 +8242,14 @@
       </c>
       <c r="H8" s="64"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="152"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159"/>
+      <c r="A9" s="166"/>
       <c r="B9" s="94"/>
       <c r="C9" s="102" t="s">
         <v>15</v>
@@ -8268,10 +8268,10 @@
       </c>
       <c r="H9" s="69"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="152"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8295,10 +8295,10 @@
         <v>30</v>
       </c>
       <c r="H10" s="83"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="152"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
@@ -8325,10 +8325,10 @@
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="155"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="162"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8356,11 +8356,11 @@
         <v>10</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="160" t="s">
+      <c r="C13" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
       <c r="F13" s="126" t="s">
         <v>31</v>
       </c>
@@ -8413,7 +8413,7 @@
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="137" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="120"/>
@@ -8489,7 +8489,7 @@
       <c r="C20" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="173" t="s">
+      <c r="E20" s="136" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="119"/>
@@ -8507,10 +8507,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="170"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="133"/>
       <c r="G21" s="86"/>
       <c r="H21" s="67"/>
       <c r="J21" s="79"/>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="87"/>
-      <c r="D22" s="172"/>
+      <c r="D22" s="135"/>
       <c r="E22" s="87"/>
       <c r="F22" s="87"/>
       <c r="G22" s="87"/>
@@ -8543,23 +8543,23 @@
       <c r="C23" s="84">
         <v>44410</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="144"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="151"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="55"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8632,12 +8632,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="str">
+      <c r="B2" s="149" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8870,24 +8870,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="153"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8959,12 +8959,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="163" t="str">
+      <c r="B2" s="170" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9197,24 +9197,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -9253,6 +9253,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -9473,15 +9482,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9492,6 +9492,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9510,14 +9518,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>

--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAD6A1-6A42-4147-BDAA-BDEB86BB9E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC793D-45A2-4E20-9EC9-B9FEEA493C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>メモ</t>
   </si>
@@ -935,6 +935,117 @@
     </rPh>
     <rPh sb="234" eb="236">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>・DAO単体テスト
+・action、service、jspを引き続き</t>
+    <rPh sb="4" eb="6">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇DAO単体テスト
+　4～5割終了
+〇プログラミング
+　8～9割終了
+　26日から結合テスト開始予定</t>
+    <rPh sb="4" eb="6">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t>カイシヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>・DAO単体テスト
+・その他引き続き</t>
+    <rPh sb="4" eb="6">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>〇DAO単体テスト
+　終了！
+〇その他進捗
+・サーブレットに合わせて各所修正
+・DAOのテストに合わせて各所修正</t>
+    <rPh sb="4" eb="6">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクショ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="33"/>
+  </si>
+  <si>
+    <t>・入れるところから結合テスト</t>
+    <rPh sb="1" eb="2">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケツゴウ</t>
     </rPh>
     <phoneticPr fontId="33"/>
   </si>
@@ -2569,7 +2680,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2858,15 +2969,6 @@
     <xf numFmtId="0" fontId="29" fillId="38" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2885,12 +2987,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2906,9 +3002,6 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="73" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="40" fillId="0" borderId="75" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2933,9 +3026,6 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2954,9 +3044,6 @@
     <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2984,6 +3071,9 @@
     <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3094,6 +3184,31 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4688,8 +4803,8 @@
       <xdr:rowOff>259707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>259707</xdr:rowOff>
     </xdr:to>
@@ -4706,8 +4821,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2253343" y="13496736"/>
-          <a:ext cx="4659086" cy="0"/>
+          <a:off x="2254432" y="14509107"/>
+          <a:ext cx="3254828" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4715,6 +4830,126 @@
         <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362596</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>914183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2521</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>728876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="乗算記号 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5B3F6C-03C8-4812-AC49-86DC30E5B27E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2223656" y="15468383"/>
+          <a:ext cx="1459325" cy="1468233"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6532</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>259708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>259708</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8812DD6B-7FE1-4B16-90B7-7D02B38384E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5485312" y="14509108"/>
+          <a:ext cx="1730828" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5074,12 +5309,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="138" t="str">
+      <c r="B2" s="131" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5121,10 +5356,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="143"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -5358,13 +5593,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -5374,11 +5609,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -5466,12 +5701,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="str">
+      <c r="B2" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5704,24 +5939,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="172"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="174"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -5793,12 +6028,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="str">
+      <c r="B2" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6031,24 +6266,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="172"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="174"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6120,12 +6355,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="138" t="str">
+      <c r="B2" s="131" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6358,24 +6593,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6447,12 +6682,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="138" t="str">
+      <c r="B2" s="131" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6685,24 +6920,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="133"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6774,12 +7009,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="144" t="str">
+      <c r="B2" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7012,24 +7247,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7101,12 +7336,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="144" t="str">
+      <c r="B2" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7339,24 +7574,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7428,12 +7663,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="144" t="str">
+      <c r="B2" s="137" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7666,24 +7901,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="146"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="148"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7755,12 +7990,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="149" t="str">
+      <c r="B2" s="142" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7993,24 +8228,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="153"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8056,9 +8291,9 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8066,7 +8301,7 @@
     <col min="1" max="1" width="10.26953125" style="53" customWidth="1"/>
     <col min="2" max="3" width="16.81640625" style="33" customWidth="1"/>
     <col min="4" max="4" width="21.453125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="33" customWidth="1"/>
     <col min="6" max="6" width="21.453125" style="33" customWidth="1"/>
     <col min="7" max="7" width="42.36328125" style="33" customWidth="1"/>
     <col min="8" max="8" width="17.08984375" style="33" customWidth="1"/>
@@ -8078,12 +8313,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="163" t="str">
+      <c r="B1" s="156" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8151,7 +8386,7 @@
       <c r="C4" s="90"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="173" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="88"/>
@@ -8165,10 +8400,10 @@
       <c r="C5" s="91"/>
       <c r="D5" s="86"/>
       <c r="E5" s="86"/>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="99"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8179,19 +8414,19 @@
       <c r="C6" s="95"/>
       <c r="D6" s="87"/>
       <c r="E6" s="87"/>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="176" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="83"/>
-      <c r="K6" s="154" t="s">
+      <c r="K6" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="156"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="149"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
@@ -8199,79 +8434,79 @@
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
         <v>44381</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="97">
         <v>44382</v>
       </c>
-      <c r="D7" s="103">
+      <c r="D7" s="100">
         <v>44383</v>
       </c>
-      <c r="E7" s="103">
+      <c r="E7" s="100">
         <v>44384</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F7" s="100">
         <v>44385</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="100">
         <v>44386</v>
       </c>
       <c r="H7" s="68">
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="93"/>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="105" t="s">
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="172" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="129" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="64"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="158"/>
-      <c r="N8" s="159"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="152"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="166"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="94"/>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="102" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="69"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="159"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="152"/>
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8279,71 +8514,71 @@
         <v>9</v>
       </c>
       <c r="B10" s="82"/>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="111" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="83"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="152"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="108">
+      <c r="B11" s="103">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
         <v>44388</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="104">
         <v>44389</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="105">
         <v>44390</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="106">
         <v>44391</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="112">
         <v>44392</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="112">
         <v>44393</v>
       </c>
       <c r="H11" s="71">
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="162"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="155"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="77"/>
       <c r="B12" s="75"/>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="171" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="78"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="119" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="116"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="110"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -8356,15 +8591,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="76"/>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="126" t="s">
+      <c r="D13" s="161"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="119" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="67"/>
@@ -8374,13 +8609,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="82"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="127" t="s">
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="120" t="s">
         <v>36</v>
       </c>
       <c r="H14" s="83"/>
@@ -8391,19 +8626,19 @@
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
         <v>44395</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="97">
         <v>44396</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="97">
         <v>44397</v>
       </c>
-      <c r="E15" s="100">
+      <c r="E15" s="97">
         <v>44398</v>
       </c>
       <c r="F15" s="74">
         <v>44399</v>
       </c>
-      <c r="G15" s="122">
+      <c r="G15" s="115">
         <v>44400</v>
       </c>
       <c r="H15" s="63">
@@ -8413,11 +8648,13 @@
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="129" t="s">
+        <v>34</v>
+      </c>
       <c r="F16" s="72" t="s">
         <v>18</v>
       </c>
@@ -8430,21 +8667,31 @@
       <c r="A17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="130"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="130" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="130" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="108"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="1:13" s="37" customFormat="1" ht="76.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" s="37" customFormat="1" ht="172.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="61" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="82"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="87"/>
       <c r="F18" s="83"/>
       <c r="G18" s="51"/>
@@ -8456,23 +8703,23 @@
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
-      <c r="B19" s="115">
+      <c r="B19" s="109">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
         <v>44402</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="112">
         <v>44403</v>
       </c>
-      <c r="D19" s="118">
+      <c r="D19" s="112">
         <v>44404</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19" s="112">
         <v>44405</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="112">
         <v>44406</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="112">
         <v>44407</v>
       </c>
       <c r="H19" s="71">
@@ -8486,17 +8733,17 @@
     <row r="20" spans="1:13" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="73"/>
       <c r="B20" s="75"/>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="136" t="s">
+      <c r="E20" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="119"/>
-      <c r="G20" s="121" t="s">
+      <c r="F20" s="113"/>
+      <c r="G20" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="116"/>
+      <c r="H20" s="110"/>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
       <c r="L20" s="79"/>
@@ -8507,10 +8754,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="133"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="125"/>
       <c r="G21" s="86"/>
       <c r="H21" s="67"/>
       <c r="J21" s="79"/>
@@ -8524,7 +8771,7 @@
       </c>
       <c r="B22" s="82"/>
       <c r="C22" s="87"/>
-      <c r="D22" s="135"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="87"/>
       <c r="F22" s="87"/>
       <c r="G22" s="87"/>
@@ -8543,23 +8790,23 @@
       <c r="C23" s="84">
         <v>44410</v>
       </c>
-      <c r="D23" s="164" t="s">
+      <c r="D23" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="151"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="144"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="55"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="153"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8632,12 +8879,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="149" t="str">
+      <c r="B2" s="142" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8870,24 +9117,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="153"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8959,12 +9206,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="170" t="str">
+      <c r="B2" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9197,24 +9444,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="172"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="165"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="174"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="167"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>

--- a/開発スケジュール.xlsx
+++ b/開発スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC793D-45A2-4E20-9EC9-B9FEEA493C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613F392A-352A-402A-A9CA-58153E245BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="788" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1589,7 +1589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2235,21 +2235,6 @@
       <top style="medium">
         <color theme="8" tint="0.39997558519241921"/>
       </top>
-      <bottom style="medium">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right style="medium">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="medium">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2611,6 +2596,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="0.59999389629810485"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2680,7 +2700,7 @@
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -2891,9 +2911,6 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="25" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -2936,14 +2953,17 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="57" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="60" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -2951,10 +2971,7 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="62" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="63" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2966,31 +2983,34 @@
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="57" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="66" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="44" fillId="0" borderId="58" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="0" borderId="57" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="6" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="70" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="0" borderId="71" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,10 +3019,7 @@
     <xf numFmtId="178" fontId="27" fillId="0" borderId="72" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="73" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="75" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3014,64 +3031,86 @@
     <xf numFmtId="178" fontId="40" fillId="6" borderId="39" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="58" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="57" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="178" fontId="27" fillId="6" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="38" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="38" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="57" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="61" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="60" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="75" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="73" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="64" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="66" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="38" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
@@ -3161,15 +3200,15 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3185,30 +3224,17 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="69" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="76" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="74" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="68" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="65" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="67" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="38" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="86" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="87" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="6" borderId="88" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="88" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4083,13 +4109,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146638</xdr:colOff>
+      <xdr:colOff>964056</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>277905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1616849</xdr:colOff>
+      <xdr:colOff>2434267</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>654423</xdr:rowOff>
     </xdr:to>
@@ -4106,8 +4132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8844324" y="1410019"/>
-          <a:ext cx="1470211" cy="1475975"/>
+          <a:off x="9983365" y="1400123"/>
+          <a:ext cx="1470211" cy="1471027"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
           <a:avLst/>
@@ -4408,13 +4434,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:colOff>955965</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>439269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1622612</xdr:colOff>
+      <xdr:colOff>2426176</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>537881</xdr:rowOff>
     </xdr:to>
@@ -4431,7 +4457,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839201" y="4320987"/>
+          <a:off x="9975274" y="4318542"/>
           <a:ext cx="1470211" cy="1470212"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -4970,6 +4996,136 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171105</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>914183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1637357</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>728876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="乗算記号 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB32B99-7A73-4915-B839-D3D4A5630E01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3856414" y="15475310"/>
+          <a:ext cx="1466252" cy="1463384"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>87978</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>914183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1554230</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>728876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="乗算記号 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99A5097E-BA42-4CB4-AEFF-92A94801511C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5574378" y="15475310"/>
+          <a:ext cx="1466252" cy="1463384"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5309,12 +5465,12 @@
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="138" t="str">
         <f>CalendarYear&amp;"年"&amp;"1月"</f>
         <v>2021年1月</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5356,10 +5512,10 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="136"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -5593,13 +5749,13 @@
       <c r="C14" s="40">
         <v>44228</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -5609,11 +5765,11 @@
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -5701,12 +5857,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="163" t="str">
+      <c r="B2" s="170" t="str">
         <f>CalendarYear&amp;"年"&amp;"10月"</f>
         <v>2021年10月</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5939,24 +6095,24 @@
       <c r="C14" s="43">
         <v>44501</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6028,12 +6184,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="163" t="str">
+      <c r="B2" s="170" t="str">
         <f>CalendarYear&amp;"年"&amp;"11月"</f>
         <v>2021年11月</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6266,24 +6422,24 @@
       <c r="C14" s="43">
         <v>44536</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6355,12 +6511,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="138" t="str">
         <f>CalendarYear&amp;"年"&amp;"12月"</f>
         <v>2021年12月</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6593,24 +6749,24 @@
       <c r="C14" s="40">
         <v>44564</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -6682,12 +6838,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="131" t="str">
+      <c r="B2" s="138" t="str">
         <f>CalendarYear&amp;"年"&amp;"2月"</f>
         <v>2021年2月</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6920,24 +7076,24 @@
       <c r="C14" s="40">
         <v>44263</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="140"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7009,12 +7165,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"3月"</f>
         <v>2021年3月</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7247,24 +7403,24 @@
       <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7336,12 +7492,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"4月"</f>
         <v>2021年4月</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7574,24 +7730,24 @@
       <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7663,12 +7819,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="137" t="str">
+      <c r="B2" s="144" t="str">
         <f>CalendarYear&amp;"年"&amp;"5月"</f>
         <v>2021年5月</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -7901,24 +8057,24 @@
       <c r="C14" s="49">
         <v>44347</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="141"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="148"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -7990,12 +8146,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="str">
+      <c r="B2" s="149" t="str">
         <f>CalendarYear&amp;"年"&amp;"6月"</f>
         <v>2021年6月</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -8228,24 +8384,24 @@
       <c r="C14" s="46">
         <v>44382</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="153"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -8293,7 +8449,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8313,12 +8469,12 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
-      <c r="B1" s="156" t="str">
+      <c r="B1" s="163" t="str">
         <f>CalendarYear&amp;"年"&amp;"7月"</f>
         <v>2021年7月</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8357,23 +8513,23 @@
     </row>
     <row r="3" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
-      <c r="B3" s="80">
+      <c r="B3" s="79">
         <f t="array" ref="B3:H3">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+1</f>
         <v>44374</v>
       </c>
-      <c r="C3" s="89">
+      <c r="C3" s="88">
         <v>44375</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="84">
         <v>44376</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="84">
         <v>44377</v>
       </c>
-      <c r="F3" s="85">
+      <c r="F3" s="84">
         <v>44378</v>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <v>44379</v>
       </c>
       <c r="H3" s="65">
@@ -8382,203 +8538,203 @@
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="173" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="88"/>
+      <c r="G4" s="87"/>
       <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:15" s="37" customFormat="1" ht="62.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="175" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="96"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:15" s="37" customFormat="1" ht="82.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="176" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="K6" s="147" t="s">
+      <c r="H6" s="82"/>
+      <c r="K6" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="149"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="156"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="92">
+      <c r="B7" s="91">
         <f t="array" ref="B7:H7">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+8</f>
         <v>44381</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="96">
         <v>44382</v>
       </c>
-      <c r="D7" s="100">
+      <c r="D7" s="99">
         <v>44383</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <v>44384</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="99">
         <v>44385</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <v>44386</v>
       </c>
       <c r="H7" s="68">
         <v>44387</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="159"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="93"/>
-      <c r="C8" s="174" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="172" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="127" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="64"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="152"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="159"/>
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" s="37" customFormat="1" ht="108" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="99" t="s">
+      <c r="A9" s="166"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="101" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="69"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="152"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="158"/>
+      <c r="M9" s="158"/>
+      <c r="N9" s="159"/>
       <c r="O9" s="62"/>
     </row>
     <row r="10" spans="1:15" s="37" customFormat="1" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="121" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="F10" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="152"/>
+      <c r="H10" s="82"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="158"/>
+      <c r="M10" s="158"/>
+      <c r="N10" s="159"/>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="103">
+      <c r="B11" s="102">
         <f t="array" ref="B11:H11">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+15</f>
         <v>44388</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="103">
         <v>44389</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="104">
         <v>44390</v>
       </c>
-      <c r="E11" s="106">
+      <c r="E11" s="105">
         <v>44391</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="111">
         <v>44392</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="111">
         <v>44393</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="70">
         <v>44394</v>
       </c>
       <c r="J11" s="37"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="155"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="162"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" s="62" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="171" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="78"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="169" t="s">
+      <c r="D12" s="77"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="110"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="109"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
@@ -8590,16 +8746,16 @@
       <c r="A13" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="160" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="119" t="s">
+      <c r="D13" s="168"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="118" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="67"/>
@@ -8608,37 +8764,37 @@
       <c r="A14" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="120" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="83"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
-      <c r="B15" s="92">
+      <c r="B15" s="91">
         <f t="array" ref="B15:H15">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+22</f>
         <v>44395</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="96">
         <v>44396</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="96">
         <v>44397</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="96">
         <v>44398</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="73">
         <v>44399</v>
       </c>
-      <c r="G15" s="115">
+      <c r="G15" s="114">
         <v>44400</v>
       </c>
       <c r="H15" s="63">
@@ -8647,139 +8803,139 @@
     </row>
     <row r="16" spans="1:15" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="129" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="129" t="s">
+      <c r="D16" s="113"/>
+      <c r="E16" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="72" t="s">
+      <c r="F16" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="176"/>
+    </row>
+    <row r="17" spans="1:13" s="37" customFormat="1" ht="130.19999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="130" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="130" t="s">
+      <c r="D17" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="108"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="70"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="175"/>
     </row>
     <row r="18" spans="1:13" s="37" customFormat="1" ht="172.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="168" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="83"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
     </row>
     <row r="19" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
-      <c r="B19" s="109">
+      <c r="B19" s="108">
         <f t="array" ref="B19:H19">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+29</f>
         <v>44402</v>
       </c>
-      <c r="C19" s="112">
+      <c r="C19" s="111">
         <v>44403</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="111">
         <v>44404</v>
       </c>
-      <c r="E19" s="112">
+      <c r="E19" s="111">
         <v>44405</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="111">
         <v>44406</v>
       </c>
-      <c r="G19" s="112">
+      <c r="G19" s="111">
         <v>44407</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="70">
         <v>44408</v>
       </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:13" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="169" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="128" t="s">
+      <c r="E20" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="113"/>
-      <c r="G20" s="170" t="s">
+      <c r="F20" s="112"/>
+      <c r="G20" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="110"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
+      <c r="H20" s="109"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" s="37" customFormat="1" ht="117" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="86"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="67"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
     </row>
     <row r="22" spans="1:13" s="37" customFormat="1" ht="83.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="83"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="82"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
     </row>
     <row r="23" spans="1:13" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
@@ -8787,26 +8943,26 @@
         <f t="array" ref="B23:C23">DaysAndWeeks+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(週の始まり="月曜日")+1)+36</f>
         <v>44409</v>
       </c>
-      <c r="C23" s="84">
+      <c r="C23" s="83">
         <v>44410</v>
       </c>
-      <c r="D23" s="157" t="s">
+      <c r="D23" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="144"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="151"/>
     </row>
     <row r="24" spans="1:13" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="60"/>
       <c r="B24" s="55"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="146"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8879,12 +9035,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="str">
+      <c r="B2" s="149" t="str">
         <f>CalendarYear&amp;"年"&amp;"8月"</f>
         <v>2021年8月</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9117,24 +9273,24 @@
       <c r="C14" s="46">
         <v>44445</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="146"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="153"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -9206,12 +9362,12 @@
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="163" t="str">
+      <c r="B2" s="170" t="str">
         <f>CalendarYear&amp;"年"&amp;"9月"</f>
         <v>2021年9月</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -9444,24 +9600,24 @@
       <c r="C14" s="43">
         <v>44473</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="165"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" s="37" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="167"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="15"/>
     </row>
   </sheetData>
@@ -9500,15 +9656,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -9729,6 +9876,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9739,14 +9895,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9765,6 +9913,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
